--- a/in/Avito_template.xlsx
+++ b/in/Avito_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>GoodsType</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>TypeID</t>
-  </si>
-  <si>
-    <t>Артикул</t>
   </si>
   <si>
     <t>InstallationLocation</t>
@@ -472,93 +469,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="54.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="53.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="27.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="27.7109375" style="9" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="27.7109375" style="9" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="P1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>24</v>
@@ -567,36 +563,33 @@
         <v>25</v>
       </c>
       <c r="T1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:W2173">
-    <sortCondition ref="C2:C2173"/>
+  <sortState ref="A2:V2173">
+    <sortCondition ref="B2:B2173"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
